--- a/template.xlsx
+++ b/template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51B2CDB-FE71-4C75-B507-6F9559FFE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E88FD4-589B-481B-ADFA-C8F08EF83E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="30" windowWidth="24405" windowHeight="15135" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shell" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>매개변수</t>
   </si>
@@ -65,6 +66,84 @@
   </si>
   <si>
     <t>현재 옵션 플래그</t>
+  </si>
+  <si>
+    <t>Dating Game</t>
+  </si>
+  <si>
+    <t>Leap of Faith</t>
+  </si>
+  <si>
+    <t>Malice</t>
+  </si>
+  <si>
+    <t>The Promise</t>
+  </si>
+  <si>
+    <t>Silent Honor</t>
+  </si>
+  <si>
+    <t>The Gift</t>
+  </si>
+  <si>
+    <t>Echoes</t>
+  </si>
+  <si>
+    <t>Five Days in Paris</t>
+  </si>
+  <si>
+    <t>The Ranch</t>
+  </si>
+  <si>
+    <t>The Ring</t>
+  </si>
+  <si>
+    <t>Zoya</t>
+  </si>
+  <si>
+    <t>Full Circle</t>
+  </si>
+  <si>
+    <t>Kaleidoscope</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Special Delivery</t>
+  </si>
+  <si>
+    <t>His Bright Light</t>
+  </si>
+  <si>
+    <t>The House On Hope Street</t>
+  </si>
+  <si>
+    <t>Lone Eagle</t>
+  </si>
+  <si>
+    <t>The Kiss</t>
+  </si>
+  <si>
+    <t>Sunset In St. Tropez</t>
+  </si>
+  <si>
+    <t>Second Chance</t>
+  </si>
+  <si>
+    <t>확장자</t>
+  </si>
+  <si>
+    <t>$변수</t>
+  </si>
+  <si>
+    <t>${변수}</t>
+  </si>
+  <si>
+    <t>현재 문자열에서 해당 변수를 파라미터 값으로 치환</t>
+  </si>
+  <si>
+    <t>위와 같지만 {}를 사용함으로써 뒤에 오는 문자열과 구분 가능</t>
   </si>
 </sst>
 </file>
@@ -137,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,91 +553,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3914EF-F9DE-4522-9B34-1DE44BC6D31B}">
-  <dimension ref="F8:I16"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="86" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="6" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B1E18-A801-4199-BA87-3CDABB56B85F}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E88FD4-589B-481B-ADFA-C8F08EF83E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD610483-DB77-420B-A8CD-91E4BC3D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="29820" yWindow="75" windowWidth="26010" windowHeight="15135" activeTab="2" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>매개변수</t>
   </si>
@@ -144,6 +145,102 @@
   </si>
   <si>
     <t>위와 같지만 {}를 사용함으로써 뒤에 오는 문자열과 구분 가능</t>
+  </si>
+  <si>
+    <t>변수가 설정되지 않은 경우 문자열로 변수를 치환</t>
+  </si>
+  <si>
+    <t>변수가 설정되지 않았거나 Null로 설정된 경우 문자열로 변수 치환</t>
+  </si>
+  <si>
+    <t>${변수=문자열}</t>
+  </si>
+  <si>
+    <t>${변수:-문자열}</t>
+  </si>
+  <si>
+    <t>${변수-문자열}</t>
+  </si>
+  <si>
+    <t>변수가 설정되지 않은 경우 문자열을 변수에 저장하고 변수 치환</t>
+  </si>
+  <si>
+    <t>${변수:=문자열}</t>
+  </si>
+  <si>
+    <t>변수가 설정되지 않았거나 Null로 설정된 경우 문자열을 변수에 저장하고 변수 치환</t>
+  </si>
+  <si>
+    <t>${변수+문자열}</t>
+  </si>
+  <si>
+    <t>변수가 설정된 경우 문자열로 변수 치환</t>
+  </si>
+  <si>
+    <t>${변수:+문자열}</t>
+  </si>
+  <si>
+    <t>변수가 설정되고, Null 이외의 값으로 설정된 경우 문자열로 변수 치환</t>
+  </si>
+  <si>
+    <t>${변수?에러 메시지}</t>
+  </si>
+  <si>
+    <t>변수가 설정된 경우 변수의 값을 사용하며, 설정되지 않은 경우 표준 오류 출력으로 에러 메시지를 출력</t>
+  </si>
+  <si>
+    <t>${변수:?에러 메시지}</t>
+  </si>
+  <si>
+    <t>변수가 Null 이외의 값으로 설정된 경우 변수의 값을 사용하며, 변수가 설정되지 않았거나 Null인 경우 에러 메시지를 출력하고 셀을 종료</t>
+  </si>
+  <si>
+    <t>${변수:시작 위치}</t>
+  </si>
+  <si>
+    <t>변수값이 문자열일 경우 시작 위치부터 문자열 길이 끝까지 출력</t>
+  </si>
+  <si>
+    <t>${변수:시작 위치:길이}</t>
+  </si>
+  <si>
+    <t>변수값이 문자열일 경우 시작 위치부터 길이까지 출력</t>
+  </si>
+  <si>
+    <t>바인딩 종류</t>
+  </si>
+  <si>
+    <t>특징</t>
+  </si>
+  <si>
+    <t>static binding</t>
+  </si>
+  <si>
+    <t>dynamic binding</t>
+  </si>
+  <si>
+    <t>컴파일 시간에 호출 함수가 결정된다.</t>
+  </si>
+  <si>
+    <t>실행 시간에 호출 함수가 결정된다.</t>
+  </si>
+  <si>
+    <t>속도</t>
+  </si>
+  <si>
+    <t>빠르다</t>
+  </si>
+  <si>
+    <t>느리다</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>일반 함수</t>
+  </si>
+  <si>
+    <t>가상 함수</t>
   </si>
 </sst>
 </file>
@@ -162,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -212,11 +315,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +453,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,31 +803,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3914EF-F9DE-4522-9B34-1DE44BC6D31B}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -586,8 +838,9 @@
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -596,8 +849,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -606,8 +860,9 @@
         <v>7</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -616,8 +871,9 @@
         <v>8</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -626,20 +882,23 @@
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -648,8 +907,9 @@
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -658,8 +918,9 @@
         <v>34</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -668,113 +929,182 @@
         <v>35</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,11 +1113,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B35D211-9CBE-4844-976F-CA1DF3683D7B}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B1E18-A801-4199-BA87-3CDABB56B85F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +1247,7 @@
       <c r="D2" s="9">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="8"/>
@@ -833,7 +1263,7 @@
       <c r="D3" s="9">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="8"/>
@@ -849,7 +1279,7 @@
       <c r="D4" s="9">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="8"/>
@@ -865,7 +1295,7 @@
       <c r="D5" s="9">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="8"/>
@@ -875,13 +1305,13 @@
       <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="8"/>
@@ -891,13 +1321,13 @@
       <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="9">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="8"/>
@@ -913,7 +1343,7 @@
       <c r="D8" s="9">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="23" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="8"/>
@@ -929,7 +1359,7 @@
       <c r="D9" s="9">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="8"/>
@@ -939,13 +1369,13 @@
       <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="9">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="8"/>
@@ -955,7 +1385,7 @@
       <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="9">
@@ -971,7 +1401,7 @@
       <c r="B12" s="9">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="9"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD610483-DB77-420B-A8CD-91E4BC3D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA45F3-6F38-4725-8D39-21BEE2DE29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="75" windowWidth="26010" windowHeight="15135" activeTab="2" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="EngTrainig" sheetId="4" r:id="rId4"/>
+    <sheet name="Drive" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="159">
   <si>
     <t>매개변수</t>
   </si>
@@ -241,6 +243,279 @@
   </si>
   <si>
     <t>가상 함수</t>
+  </si>
+  <si>
+    <t>사전 칠하기 1단계</t>
+  </si>
+  <si>
+    <t>2주 안에</t>
+  </si>
+  <si>
+    <t>사전 칠하기 2단계</t>
+  </si>
+  <si>
+    <t>사전 단어 베껴 쓰기</t>
+  </si>
+  <si>
+    <t>5주 안에</t>
+  </si>
+  <si>
+    <t>문법(트레이닝북)</t>
+  </si>
+  <si>
+    <t>중학영문법 3800제 1학년</t>
+  </si>
+  <si>
+    <t>중학영문법 3800제 2학년</t>
+  </si>
+  <si>
+    <t>중학영문법 3800제 3학년</t>
+  </si>
+  <si>
+    <t>숙어(트레이닝북)</t>
+  </si>
+  <si>
+    <t>책 읽기 4주 전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dating Game </t>
+  </si>
+  <si>
+    <t>사전 칠하기</t>
+  </si>
+  <si>
+    <t>단어 쓰기</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>단어 쓰기 뜻</t>
+  </si>
+  <si>
+    <t>단어쓰기 완성</t>
+  </si>
+  <si>
+    <t>사전 단어장</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>2022 Black Tiger</t>
+  </si>
+  <si>
+    <t>구글 드라이브</t>
+  </si>
+  <si>
+    <t>6.76GB/15GB</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>PRJ</t>
+  </si>
+  <si>
+    <t>01_ENGLISH</t>
+  </si>
+  <si>
+    <t>문서</t>
+  </si>
+  <si>
+    <t>통화기록</t>
+  </si>
+  <si>
+    <t>20220322_SKB</t>
+  </si>
+  <si>
+    <t>CPRI</t>
+  </si>
+  <si>
+    <t>ENERWATCH</t>
+  </si>
+  <si>
+    <t>RTOS</t>
+  </si>
+  <si>
+    <t>12_ENERWATCH</t>
+  </si>
+  <si>
+    <t>01_proc</t>
+  </si>
+  <si>
+    <t>01_설계개발입력정보</t>
+  </si>
+  <si>
+    <t>02_PLAN</t>
+  </si>
+  <si>
+    <t>05_DESIGN</t>
+  </si>
+  <si>
+    <t>04_ref</t>
+  </si>
+  <si>
+    <t>01-Document</t>
+  </si>
+  <si>
+    <t>03-Tools</t>
+  </si>
+  <si>
+    <t>04-Linux_Source</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Peripherals</t>
+  </si>
+  <si>
+    <t>~~~</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Schematic</t>
+  </si>
+  <si>
+    <t>UserManual</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>Buildroot-at91</t>
+  </si>
+  <si>
+    <t>Linux-at91</t>
+  </si>
+  <si>
+    <t>Qt_Arm</t>
+  </si>
+  <si>
+    <t>One Drive 개인</t>
+  </si>
+  <si>
+    <t>4.29GB/5GB</t>
+  </si>
+  <si>
+    <t>01_STUDY</t>
+  </si>
+  <si>
+    <t>01_Tech</t>
+  </si>
+  <si>
+    <t>02_Programming</t>
+  </si>
+  <si>
+    <t>01_NB-IoT</t>
+  </si>
+  <si>
+    <t>02_5G</t>
+  </si>
+  <si>
+    <t>교육자료</t>
+  </si>
+  <si>
+    <t>03_IMD</t>
+  </si>
+  <si>
+    <t>04_SmallCell</t>
+  </si>
+  <si>
+    <t>05_SpectrumAnalyzer</t>
+  </si>
+  <si>
+    <t>07_FTP</t>
+  </si>
+  <si>
+    <t>08_Network</t>
+  </si>
+  <si>
+    <t>01_Cpp</t>
+  </si>
+  <si>
+    <t>03_OOPinC</t>
+  </si>
+  <si>
+    <t>03_Tools</t>
+  </si>
+  <si>
+    <t>01_Atlassian</t>
+  </si>
+  <si>
+    <t>02_Git</t>
+  </si>
+  <si>
+    <t>10_CodeBlocks</t>
+  </si>
+  <si>
+    <t>OneDrive회사</t>
+  </si>
+  <si>
+    <t>회사 관련 자료</t>
+  </si>
+  <si>
+    <t>기술문서</t>
+  </si>
+  <si>
+    <t>메일</t>
+  </si>
+  <si>
+    <t>OneDrive개인</t>
+  </si>
+  <si>
+    <t>구글드라이브</t>
+  </si>
+  <si>
+    <t>MYBOX</t>
+  </si>
+  <si>
+    <t>NAS 개인</t>
+  </si>
+  <si>
+    <t>일단 Dell로 모두 내려받기</t>
+  </si>
+  <si>
+    <t>중복 삭제</t>
+  </si>
+  <si>
+    <t>불필요 자료 삭제</t>
+  </si>
+  <si>
+    <t>Cloud 플랜대로 폴더 구성</t>
+  </si>
+  <si>
+    <t>분산해서 업로드</t>
   </si>
 </sst>
 </file>
@@ -250,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +533,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +566,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -426,11 +732,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,6 +870,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B1E18-A801-4199-BA87-3CDABB56B85F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1420,4 +1839,2011 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EF3F6-41AF-4C25-884E-C06E17A3D2FB}">
+  <dimension ref="A1:AK39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="37" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
+        <v>2</v>
+      </c>
+      <c r="K4" s="24">
+        <v>3</v>
+      </c>
+      <c r="L4" s="24">
+        <v>4</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+      <c r="N4" s="24">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24">
+        <v>3</v>
+      </c>
+      <c r="P4" s="24">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1</v>
+      </c>
+      <c r="R4" s="24">
+        <v>2</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3</v>
+      </c>
+      <c r="T4" s="24">
+        <v>4</v>
+      </c>
+      <c r="U4" s="24">
+        <v>1</v>
+      </c>
+      <c r="V4" s="24">
+        <v>2</v>
+      </c>
+      <c r="W4" s="24">
+        <v>3</v>
+      </c>
+      <c r="X4" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="2"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="2"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="2"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="2"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="2"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="2"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="2"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="2"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="2"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="E2:AJ2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB310DAA-1BAF-441B-9BE8-A960ED9D9C3F}">
+  <dimension ref="A2:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA45F3-6F38-4725-8D39-21BEE2DE29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC7FB4-EFD9-4C98-88D9-4FB225368D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
   <si>
     <t>매개변수</t>
   </si>
@@ -516,6 +516,84 @@
   </si>
   <si>
     <t>분산해서 업로드</t>
+  </si>
+  <si>
+    <t>구매완료</t>
+  </si>
+  <si>
+    <t>국내없음</t>
+  </si>
+  <si>
+    <t>국내있음</t>
+  </si>
+  <si>
+    <t>Master of the Game</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>If tomorrow comes</t>
+  </si>
+  <si>
+    <t>Rage of Angels</t>
+  </si>
+  <si>
+    <t>The Stars Shine Down</t>
+  </si>
+  <si>
+    <t>Nothing Lasts Forever</t>
+  </si>
+  <si>
+    <t>Tell Me Your Dreams</t>
+  </si>
+  <si>
+    <t>The Naked Face</t>
+  </si>
+  <si>
+    <t>The Other Side of Midnight</t>
+  </si>
+  <si>
+    <t>A Stranger in the Mirror</t>
+  </si>
+  <si>
+    <t>Bloodline</t>
+  </si>
+  <si>
+    <t>Windmills of the Gods</t>
+  </si>
+  <si>
+    <t>The Sands of Time</t>
+  </si>
+  <si>
+    <t>Memories of Midnight</t>
+  </si>
+  <si>
+    <t>The Doomsday Conspiracy</t>
+  </si>
+  <si>
+    <t>Morning, Noon and Night</t>
+  </si>
+  <si>
+    <t>The Best Laid Plans</t>
+  </si>
+  <si>
+    <t>The Sky is Falling</t>
+  </si>
+  <si>
+    <t>Are You Afraid of the Dark?</t>
+  </si>
+  <si>
+    <t>11번가 아마존</t>
+  </si>
+  <si>
+    <t>국내paperback</t>
+  </si>
+  <si>
+    <t>도서관</t>
+  </si>
+  <si>
+    <t>In his father's footsteps</t>
   </si>
 </sst>
 </file>
@@ -541,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +665,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,6 +1003,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,7 +1026,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B1E18-A801-4199-BA87-3CDABB56B85F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,9 +1768,10 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1655,12 +1779,12 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="9">
@@ -1670,13 +1794,16 @@
         <v>21</v>
       </c>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="62" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9">
@@ -1686,13 +1813,16 @@
         <v>22</v>
       </c>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="9">
@@ -1702,13 +1832,16 @@
         <v>23</v>
       </c>
       <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="9">
@@ -1718,8 +1851,11 @@
         <v>24</v>
       </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1735,7 +1871,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1751,7 +1887,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1767,7 +1903,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1783,7 +1919,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -1799,7 +1935,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -1815,7 +1951,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -1823,17 +1959,200 @@
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="61">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="61">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="61">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="61">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="61">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="H22" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EF3F6-41AF-4C25-884E-C06E17A3D2FB}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -1901,40 +2220,40 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="52"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="59"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1942,54 +2261,54 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49" t="s">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49" t="s">
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49" t="s">
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2287,7 +2606,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="49"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC7FB4-EFD9-4C98-88D9-4FB225368D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544636A-F6F4-46F4-A285-AD65ADFF9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="EngTrainig" sheetId="4" r:id="rId4"/>
     <sheet name="Drive" sheetId="5" r:id="rId5"/>
+    <sheet name="YouTubeTime" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
   <si>
     <t>매개변수</t>
   </si>
@@ -594,14 +595,27 @@
   </si>
   <si>
     <t>In his father's footsteps</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cal Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -919,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,6 +1028,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,11 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B1E18-A801-4199-BA87-3CDABB56B85F}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1784,7 +1799,7 @@
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="9">
@@ -1794,7 +1809,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="58" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1803,7 +1818,7 @@
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9">
@@ -1822,7 +1837,7 @@
       <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="9">
@@ -1841,7 +1856,7 @@
       <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="9">
@@ -1851,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="56" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1959,7 +1974,7 @@
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="8" t="s">
         <v>184</v>
       </c>
@@ -1986,13 +2001,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="61">
+      <c r="B17" s="57">
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2018,7 +2033,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="61">
+      <c r="B19" s="57">
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2034,7 +2049,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="61">
+      <c r="B20" s="57">
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2050,13 +2065,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="61">
+      <c r="B21" s="57">
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E21" s="54" t="s">
@@ -2066,13 +2081,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="61">
+      <c r="B22" s="57">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E22" s="55" t="s">
@@ -2087,7 +2102,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E23" s="50" t="s">
@@ -2097,13 +2112,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>163</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2113,13 +2128,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="57" t="s">
         <v>163</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2220,40 +2235,40 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="59"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="62"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2261,54 +2276,54 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56" t="s">
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56" t="s">
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -4165,4 +4180,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAF570-37C7-4E77-A024-2CFB4A955725}">
+  <dimension ref="B3:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="63"/>
+    <col min="2" max="2" width="10" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0</v>
+      </c>
+      <c r="D3" s="63">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="E3" s="63">
+        <v>0.16388888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="63">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D4" s="63">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="63">
+        <f>C4-C3</f>
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D5" s="63">
+        <f>D4-D3</f>
+        <v>3.1250000000000014E-2</v>
+      </c>
+      <c r="E5" s="63">
+        <f>E4-E3</f>
+        <v>0.11458333333333334</v>
+      </c>
+      <c r="F5" s="63">
+        <f>F4-F3</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="63">
+        <f>G4-G3</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="63">
+        <f>H4-H3</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <f>I4-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="63">
+        <f>J4-J3</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <f>K4-K3</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="63">
+        <f>L4-L3</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="63">
+        <f>M4-M3</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="63">
+        <f>N4-N3</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="63">
+        <f>O4-O3</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="63">
+        <f>P4-P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="63">
+        <f>Q4-Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="63">
+        <f>SUM(C5:Q5)</f>
+        <v>0.18958333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544636A-F6F4-46F4-A285-AD65ADFF9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E7DBB-46A0-4356-8F88-A927DEB0E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
   <si>
     <t>매개변수</t>
   </si>
@@ -607,6 +607,36 @@
   </si>
   <si>
     <t>Cal Time</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Temp AVG</t>
   </si>
 </sst>
 </file>
@@ -615,7 +645,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -933,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1033,6 +1063,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2235,40 +2266,40 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="63"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2276,54 +2307,54 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59" t="s">
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59" t="s">
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59" t="s">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -4184,119 +4215,158 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAF570-37C7-4E77-A024-2CFB4A955725}">
-  <dimension ref="B3:Q7"/>
+  <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="63"/>
-    <col min="2" max="2" width="10" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="63">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="59">
+        <f t="shared" ref="C5:Q5" si="0">C4-C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="63">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="E3" s="63">
-        <v>0.16388888888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="63">
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="D4" s="63">
-        <v>8.6111111111111124E-2</v>
-      </c>
-      <c r="E4" s="63">
-        <v>0.27847222222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="63">
-        <f>C4-C3</f>
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="D5" s="63">
-        <f>D4-D3</f>
-        <v>3.1250000000000014E-2</v>
-      </c>
-      <c r="E5" s="63">
-        <f>E4-E3</f>
-        <v>0.11458333333333334</v>
-      </c>
-      <c r="F5" s="63">
-        <f>F4-F3</f>
+      <c r="D5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="63">
-        <f>G4-G3</f>
+      <c r="E5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="63">
-        <f>H4-H3</f>
+      <c r="F5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="63">
-        <f>I4-I3</f>
+      <c r="G5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="63">
-        <f>J4-J3</f>
+      <c r="H5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="63">
-        <f>K4-K3</f>
+      <c r="I5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="63">
-        <f>L4-L3</f>
+      <c r="J5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="63">
-        <f>M4-M3</f>
+      <c r="K5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="63">
-        <f>N4-N3</f>
+      <c r="L5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="63">
-        <f>O4-O3</f>
+      <c r="M5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="63">
-        <f>P4-P3</f>
+      <c r="N5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="63">
-        <f>Q4-Q3</f>
+      <c r="O5" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="P5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="59">
         <f>SUM(C5:Q5)</f>
-        <v>0.18958333333333335</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="64">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="J10" s="59">
+        <f>SUM(B10:H10)</f>
+        <v>0.2895833333333333</v>
+      </c>
+      <c r="K10" s="59">
+        <f>J10/7</f>
+        <v>4.1369047619047618E-2</v>
+      </c>
+      <c r="M10" s="64">
+        <f>SUM(B10:C10)/2</f>
+        <v>0.14479166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E7DBB-46A0-4356-8F88-A927DEB0E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A5D01D-95A1-4402-BB92-086209883C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -644,22 +644,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -969,10 +976,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -989,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,10 +1022,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1063,7 +1070,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,10 +1084,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1095,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1397,27 +1404,27 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1428,7 +1435,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1439,7 +1446,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1450,7 +1457,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1461,7 +1468,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1472,21 +1479,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1497,7 +1504,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1508,7 +1515,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1519,14 +1526,14 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -1537,7 +1544,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
@@ -1548,7 +1555,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1559,7 +1566,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1570,7 +1577,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1581,7 +1588,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1592,7 +1599,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1603,7 +1610,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1614,7 +1621,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
@@ -1625,7 +1632,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -1636,7 +1643,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1647,54 +1654,55 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E32" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1708,15 +1716,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="37.8984375" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1724,14 +1732,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -1747,7 +1755,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>58</v>
@@ -1763,7 +1771,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>59</v>
@@ -1779,14 +1787,14 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1795,6 +1803,7 @@
       <c r="F7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1808,16 +1817,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1825,7 +1834,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
@@ -1844,7 +1853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -1863,7 +1872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1882,7 +1891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -1901,7 +1910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1917,7 +1926,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1933,7 +1942,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1949,7 +1958,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -1981,7 +1990,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -1997,7 +2006,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -2011,7 +2020,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2019,7 +2028,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2030,7 +2039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="57">
         <v>1</v>
@@ -2046,7 +2055,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2062,7 +2071,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="57">
         <v>3</v>
@@ -2078,7 +2087,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="57">
         <v>4</v>
@@ -2094,7 +2103,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="57">
         <v>5</v>
@@ -2110,7 +2119,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="57">
         <v>6</v>
@@ -2129,7 +2138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2141,7 +2150,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="57" t="s">
         <v>163</v>
@@ -2157,7 +2166,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="57" t="s">
         <v>163</v>
@@ -2173,7 +2182,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>163</v>
@@ -2185,7 +2194,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2193,7 +2202,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
       <c r="D28" s="52"/>
@@ -2201,6 +2210,7 @@
       <c r="F28" s="53"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2214,15 +2224,15 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="37" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.09765625" customWidth="1"/>
+    <col min="5" max="37" width="4.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2261,103 +2271,103 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="64"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60" t="s">
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60" t="s">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2460,7 +2470,7 @@
       </c>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="25" t="s">
         <v>68</v>
@@ -2503,7 +2513,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="2"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="25" t="s">
         <v>70</v>
@@ -2546,7 +2556,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
@@ -2589,7 +2599,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="25" t="s">
         <v>73</v>
@@ -2632,7 +2642,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>77</v>
@@ -2675,7 +2685,7 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="30" t="s">
         <v>74</v>
@@ -2716,7 +2726,7 @@
       <c r="AJ10" s="33"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
         <v>75</v>
@@ -2757,7 +2767,7 @@
       <c r="AJ11" s="38"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="39" t="s">
         <v>76</v>
@@ -2798,7 +2808,7 @@
       <c r="AJ12" s="43"/>
       <c r="AK12" s="2"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>79</v>
@@ -2841,7 +2851,7 @@
       <c r="AJ13" s="33"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="38" t="s">
@@ -2882,7 +2892,7 @@
       <c r="AJ14" s="38"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38" t="s">
@@ -2923,7 +2933,7 @@
       <c r="AJ15" s="38"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38" t="s">
@@ -2964,7 +2974,7 @@
       <c r="AJ16" s="38"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38" t="s">
@@ -3005,7 +3015,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="2"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43" t="s">
@@ -3046,7 +3056,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -3089,7 +3099,7 @@
       <c r="AJ19" s="33"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="38" t="s">
@@ -3130,7 +3140,7 @@
       <c r="AJ20" s="38"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38" t="s">
@@ -3171,7 +3181,7 @@
       <c r="AJ21" s="38"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38" t="s">
@@ -3212,7 +3222,7 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38" t="s">
@@ -3253,7 +3263,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43" t="s">
@@ -3294,7 +3304,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="30" t="s">
         <v>12</v>
@@ -3337,7 +3347,7 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38" t="s">
@@ -3378,7 +3388,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38" t="s">
@@ -3419,7 +3429,7 @@
       <c r="AJ27" s="38"/>
       <c r="AK27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38" t="s">
@@ -3460,7 +3470,7 @@
       <c r="AJ28" s="38"/>
       <c r="AK28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38" t="s">
@@ -3501,7 +3511,7 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="39"/>
       <c r="C30" s="43" t="s">
@@ -3542,7 +3552,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="30" t="s">
         <v>13</v>
@@ -3585,7 +3595,7 @@
       <c r="AJ31" s="33"/>
       <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="34"/>
       <c r="C32" s="38" t="s">
@@ -3626,7 +3636,7 @@
       <c r="AJ32" s="38"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="34"/>
       <c r="C33" s="38" t="s">
@@ -3667,7 +3677,7 @@
       <c r="AJ33" s="38"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38" t="s">
@@ -3708,7 +3718,7 @@
       <c r="AJ34" s="38"/>
       <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="34"/>
       <c r="C35" s="38" t="s">
@@ -3749,7 +3759,7 @@
       <c r="AJ35" s="38"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
@@ -3790,7 +3800,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3829,7 +3839,7 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3868,7 +3878,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3918,6 +3928,7 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3931,22 +3942,22 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3974,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>98</v>
       </c>
@@ -3993,7 +4004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4010,17 +4021,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>111</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L10" t="s">
         <v>117</v>
       </c>
@@ -4045,7 +4056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4053,12 +4064,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="K12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="K13" t="s">
         <v>121</v>
       </c>
@@ -4066,7 +4077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I14" t="s">
         <v>113</v>
       </c>
@@ -4074,7 +4085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I15" t="s">
         <v>114</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4093,22 +4104,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -4125,7 +4136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -4136,27 +4147,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="48" t="s">
         <v>155</v>
       </c>
@@ -4175,7 +4186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="48" t="s">
         <v>156</v>
       </c>
@@ -4183,7 +4194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="48" t="s">
         <v>157</v>
       </c>
@@ -4194,7 +4205,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="48" t="s">
         <v>158</v>
       </c>
@@ -4202,12 +4213,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4218,27 +4230,27 @@
   <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="1" max="1" width="9.09765625" style="59"/>
     <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="59"/>
+    <col min="3" max="16384" width="9.09765625" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="59" t="s">
         <v>188</v>
       </c>
@@ -4303,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="59" t="s">
         <v>187</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="59" t="s">
         <v>189</v>
       </c>
@@ -4344,32 +4356,35 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="64">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="60">
         <v>0.14861111111111111</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="60">
         <v>0.14097222222222222</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="D10" s="60">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="J10" s="59">
         <f>SUM(B10:H10)</f>
-        <v>0.2895833333333333</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K10" s="59">
         <f>J10/7</f>
-        <v>4.1369047619047618E-2</v>
-      </c>
-      <c r="M10" s="64">
-        <f>SUM(B10:C10)/2</f>
-        <v>0.14479166666666665</v>
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="M10" s="60">
+        <f>SUM(B10:H10)/3</f>
+        <v>0.14814814814814814</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A5D01D-95A1-4402-BB92-086209883C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71C4BE-D787-494A-BCB0-2C1CCADFA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -644,27 +644,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -976,10 +976,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -996,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,10 +1022,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1070,8 +1070,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,7 +1086,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1102,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1404,27 +1404,27 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1435,7 +1435,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1446,7 +1446,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1457,7 +1457,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1468,7 +1468,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1479,21 +1479,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1504,7 +1504,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1515,7 +1515,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1526,14 +1526,14 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -1544,7 +1544,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
@@ -1555,7 +1555,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1566,7 +1566,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1577,7 +1577,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1588,7 +1588,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1599,7 +1599,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1610,7 +1610,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1621,7 +1621,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
@@ -1632,7 +1632,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -1643,7 +1643,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1654,51 +1654,51 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="E32" s="2"/>
     </row>
   </sheetData>
@@ -1716,15 +1716,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="3" max="3" width="37.8984375" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1732,14 +1732,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>58</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>59</v>
@@ -1787,14 +1787,14 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1817,16 +1817,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.69921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.296875" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1834,7 +1834,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -1910,7 +1910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2028,7 +2028,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2039,7 +2039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="57">
         <v>1</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="8"/>
       <c r="B19" s="57">
         <v>3</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="57">
         <v>4</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="8"/>
       <c r="B21" s="57">
         <v>5</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="57">
         <v>6</v>
@@ -2138,7 +2138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="8"/>
       <c r="B24" s="57" t="s">
         <v>163</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="8"/>
       <c r="B25" s="57" t="s">
         <v>163</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>163</v>
@@ -2194,7 +2194,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2202,7 +2202,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
       <c r="D28" s="52"/>
@@ -2224,15 +2224,15 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.09765625" customWidth="1"/>
-    <col min="5" max="37" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="37" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2271,7 +2271,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2312,7 +2312,7 @@
       <c r="AJ2" s="64"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2367,7 +2367,7 @@
       <c r="AJ3" s="61"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37">
       <c r="A5" s="2"/>
       <c r="B5" s="25" t="s">
         <v>68</v>
@@ -2513,7 +2513,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="2"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37">
       <c r="A6" s="2"/>
       <c r="B6" s="25" t="s">
         <v>70</v>
@@ -2556,7 +2556,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
@@ -2599,7 +2599,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37">
       <c r="A8" s="2"/>
       <c r="B8" s="25" t="s">
         <v>73</v>
@@ -2642,7 +2642,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>77</v>
@@ -2685,7 +2685,7 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37">
       <c r="A10" s="2"/>
       <c r="B10" s="30" t="s">
         <v>74</v>
@@ -2726,7 +2726,7 @@
       <c r="AJ10" s="33"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
         <v>75</v>
@@ -2767,7 +2767,7 @@
       <c r="AJ11" s="38"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37">
       <c r="A12" s="2"/>
       <c r="B12" s="39" t="s">
         <v>76</v>
@@ -2808,7 +2808,7 @@
       <c r="AJ12" s="43"/>
       <c r="AK12" s="2"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>79</v>
@@ -2851,7 +2851,7 @@
       <c r="AJ13" s="33"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="38" t="s">
@@ -2892,7 +2892,7 @@
       <c r="AJ14" s="38"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38" t="s">
@@ -2933,7 +2933,7 @@
       <c r="AJ15" s="38"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37">
       <c r="A16" s="2"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38" t="s">
@@ -2974,7 +2974,7 @@
       <c r="AJ16" s="38"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38" t="s">
@@ -3015,7 +3015,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="2"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37">
       <c r="A18" s="2"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43" t="s">
@@ -3056,7 +3056,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37">
       <c r="A19" s="2"/>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -3099,7 +3099,7 @@
       <c r="AJ19" s="33"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="38" t="s">
@@ -3140,7 +3140,7 @@
       <c r="AJ20" s="38"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38" t="s">
@@ -3181,7 +3181,7 @@
       <c r="AJ21" s="38"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38" t="s">
@@ -3222,7 +3222,7 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38" t="s">
@@ -3263,7 +3263,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37">
       <c r="A24" s="2"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43" t="s">
@@ -3304,7 +3304,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37">
       <c r="A25" s="2"/>
       <c r="B25" s="30" t="s">
         <v>12</v>
@@ -3347,7 +3347,7 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37">
       <c r="A26" s="2"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38" t="s">
@@ -3388,7 +3388,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37">
       <c r="A27" s="2"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38" t="s">
@@ -3429,7 +3429,7 @@
       <c r="AJ27" s="38"/>
       <c r="AK27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38" t="s">
@@ -3470,7 +3470,7 @@
       <c r="AJ28" s="38"/>
       <c r="AK28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37">
       <c r="A29" s="2"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38" t="s">
@@ -3511,7 +3511,7 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37">
       <c r="A30" s="2"/>
       <c r="B30" s="39"/>
       <c r="C30" s="43" t="s">
@@ -3552,7 +3552,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37">
       <c r="A31" s="2"/>
       <c r="B31" s="30" t="s">
         <v>13</v>
@@ -3595,7 +3595,7 @@
       <c r="AJ31" s="33"/>
       <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37">
       <c r="A32" s="2"/>
       <c r="B32" s="34"/>
       <c r="C32" s="38" t="s">
@@ -3636,7 +3636,7 @@
       <c r="AJ32" s="38"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37">
       <c r="A33" s="2"/>
       <c r="B33" s="34"/>
       <c r="C33" s="38" t="s">
@@ -3677,7 +3677,7 @@
       <c r="AJ33" s="38"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37">
       <c r="A34" s="2"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38" t="s">
@@ -3718,7 +3718,7 @@
       <c r="AJ34" s="38"/>
       <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:37">
       <c r="A35" s="2"/>
       <c r="B35" s="34"/>
       <c r="C35" s="38" t="s">
@@ -3759,7 +3759,7 @@
       <c r="AJ35" s="38"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:37">
       <c r="A36" s="2"/>
       <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
@@ -3800,7 +3800,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3839,7 +3839,7 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:37">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3878,7 +3878,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3942,22 +3942,22 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13">
       <c r="E5" t="s">
         <v>98</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4021,17 +4021,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="H9" t="s">
         <v>111</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13">
       <c r="L10" t="s">
         <v>117</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4064,12 +4064,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13">
       <c r="K12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13">
       <c r="K13" t="s">
         <v>121</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13">
       <c r="I14" t="s">
         <v>113</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13">
       <c r="I15" t="s">
         <v>114</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4104,22 +4104,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="K18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -4147,27 +4147,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="48" t="s">
         <v>155</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="48" t="s">
         <v>156</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="48" t="s">
         <v>157</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="48" t="s">
         <v>158</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="G32" t="s">
         <v>145</v>
       </c>
@@ -4230,27 +4230,27 @@
   <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="59"/>
+    <col min="1" max="1" width="9.140625" style="59"/>
     <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" style="59"/>
+    <col min="3" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17">
       <c r="B3" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17">
       <c r="B4" s="59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17">
       <c r="B5" s="59" t="s">
         <v>188</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17">
       <c r="B7" s="59" t="s">
         <v>187</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17">
       <c r="B9" s="59" t="s">
         <v>189</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17">
       <c r="B10" s="60">
         <v>0.14861111111111111</v>
       </c>
@@ -4366,21 +4366,23 @@
       <c r="D10" s="60">
         <v>0.15486111111111112</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="60">
+        <v>8.1944444444444445E-2</v>
+      </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="J10" s="59">
         <f>SUM(B10:H10)</f>
-        <v>0.44444444444444442</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="K10" s="59">
         <f>J10/7</f>
-        <v>6.3492063492063489E-2</v>
+        <v>7.5198412698412695E-2</v>
       </c>
       <c r="M10" s="60">
-        <f>SUM(B10:H10)/3</f>
-        <v>0.14814814814814814</v>
+        <f>SUM(B10:H10)/4</f>
+        <v>0.13159722222222223</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71C4BE-D787-494A-BCB0-2C1CCADFA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC487A3-8AB9-4CAB-B938-E85140CCE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="30780" yWindow="915" windowWidth="21600" windowHeight="11235" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -644,27 +644,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -976,10 +976,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -996,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,10 +1022,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1070,8 +1070,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,7 +1086,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1102,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1404,27 +1404,27 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1435,7 +1435,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1446,7 +1446,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1457,7 +1457,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1468,7 +1468,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1479,21 +1479,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1504,7 +1504,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1515,7 +1515,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1526,14 +1526,14 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -1544,7 +1544,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
@@ -1555,7 +1555,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1566,7 +1566,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1577,7 +1577,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1588,7 +1588,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1599,7 +1599,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1610,7 +1610,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1621,7 +1621,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
@@ -1632,7 +1632,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -1643,7 +1643,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1654,51 +1654,51 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
     </row>
   </sheetData>
@@ -1716,15 +1716,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1732,14 +1732,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>58</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>59</v>
@@ -1787,14 +1787,14 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1817,16 +1817,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1834,7 +1834,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -1910,7 +1910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2028,7 +2028,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2039,7 +2039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="57">
         <v>1</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="57">
         <v>3</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="57">
         <v>4</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="57">
         <v>5</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="57">
         <v>6</v>
@@ -2138,7 +2138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="57" t="s">
         <v>163</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="57" t="s">
         <v>163</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>163</v>
@@ -2194,7 +2194,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2202,7 +2202,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
       <c r="D28" s="52"/>
@@ -2224,15 +2224,15 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="37" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.125" customWidth="1"/>
+    <col min="5" max="37" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2271,7 +2271,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2312,7 +2312,7 @@
       <c r="AJ2" s="64"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2367,7 +2367,7 @@
       <c r="AJ3" s="61"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="25" t="s">
         <v>68</v>
@@ -2513,7 +2513,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="2"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="25" t="s">
         <v>70</v>
@@ -2556,7 +2556,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
@@ -2599,7 +2599,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="25" t="s">
         <v>73</v>
@@ -2642,7 +2642,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>77</v>
@@ -2685,7 +2685,7 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="30" t="s">
         <v>74</v>
@@ -2726,7 +2726,7 @@
       <c r="AJ10" s="33"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
         <v>75</v>
@@ -2767,7 +2767,7 @@
       <c r="AJ11" s="38"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="39" t="s">
         <v>76</v>
@@ -2808,7 +2808,7 @@
       <c r="AJ12" s="43"/>
       <c r="AK12" s="2"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>79</v>
@@ -2851,7 +2851,7 @@
       <c r="AJ13" s="33"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="38" t="s">
@@ -2892,7 +2892,7 @@
       <c r="AJ14" s="38"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38" t="s">
@@ -2933,7 +2933,7 @@
       <c r="AJ15" s="38"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38" t="s">
@@ -2974,7 +2974,7 @@
       <c r="AJ16" s="38"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38" t="s">
@@ -3015,7 +3015,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="2"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43" t="s">
@@ -3056,7 +3056,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -3099,7 +3099,7 @@
       <c r="AJ19" s="33"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="38" t="s">
@@ -3140,7 +3140,7 @@
       <c r="AJ20" s="38"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38" t="s">
@@ -3181,7 +3181,7 @@
       <c r="AJ21" s="38"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38" t="s">
@@ -3222,7 +3222,7 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38" t="s">
@@ -3263,7 +3263,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43" t="s">
@@ -3304,7 +3304,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="30" t="s">
         <v>12</v>
@@ -3347,7 +3347,7 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38" t="s">
@@ -3388,7 +3388,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38" t="s">
@@ -3429,7 +3429,7 @@
       <c r="AJ27" s="38"/>
       <c r="AK27" s="2"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38" t="s">
@@ -3470,7 +3470,7 @@
       <c r="AJ28" s="38"/>
       <c r="AK28" s="2"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38" t="s">
@@ -3511,7 +3511,7 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="2"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="39"/>
       <c r="C30" s="43" t="s">
@@ -3552,7 +3552,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="2"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="30" t="s">
         <v>13</v>
@@ -3595,7 +3595,7 @@
       <c r="AJ31" s="33"/>
       <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="34"/>
       <c r="C32" s="38" t="s">
@@ -3636,7 +3636,7 @@
       <c r="AJ32" s="38"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="34"/>
       <c r="C33" s="38" t="s">
@@ -3677,7 +3677,7 @@
       <c r="AJ33" s="38"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38" t="s">
@@ -3718,7 +3718,7 @@
       <c r="AJ34" s="38"/>
       <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="34"/>
       <c r="C35" s="38" t="s">
@@ -3759,7 +3759,7 @@
       <c r="AJ35" s="38"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
@@ -3800,7 +3800,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3839,7 +3839,7 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3878,7 +3878,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3942,22 +3942,22 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>98</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4021,17 +4021,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>111</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>117</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4064,12 +4064,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>121</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>113</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>114</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4104,22 +4104,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -4147,27 +4147,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>155</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>156</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>157</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>158</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>145</v>
       </c>
@@ -4230,27 +4230,27 @@
   <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="1" max="1" width="9.125" style="59"/>
     <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="59"/>
+    <col min="3" max="16384" width="9.125" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="59" t="s">
         <v>188</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
         <v>187</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="59" t="s">
         <v>189</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="60">
         <v>0.14861111111111111</v>
       </c>
@@ -4369,20 +4369,22 @@
       <c r="E10" s="60">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="60">
+        <v>0.20694444444444446</v>
+      </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="J10" s="59">
         <f>SUM(B10:H10)</f>
-        <v>0.52638888888888891</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="K10" s="59">
         <f>J10/7</f>
-        <v>7.5198412698412695E-2</v>
+        <v>0.10476190476190476</v>
       </c>
       <c r="M10" s="60">
-        <f>SUM(B10:H10)/4</f>
-        <v>0.13159722222222223</v>
+        <f>SUM(B10:H10)/5</f>
+        <v>0.14666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC487A3-8AB9-4CAB-B938-E85140CCE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72671430-38D8-49EB-9E30-D5D56F27847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="915" windowWidth="21600" windowHeight="11235" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
   <si>
     <t>매개변수</t>
   </si>
@@ -630,13 +630,27 @@
     <t>SUN</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>Temp AVG</t>
+    <t>AVG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIFF S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIFF A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -970,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,6 +1098,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4227,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAF570-37C7-4E77-A024-2CFB4A955725}">
-  <dimension ref="B3:Q10"/>
+  <dimension ref="B3:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4346,14 +4362,17 @@
       <c r="H9" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="65" t="s">
         <v>198</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -4372,19 +4391,43 @@
       <c r="F10" s="60">
         <v>0.20694444444444446</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="J10" s="59">
+      <c r="G10" s="60">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="H10" s="60">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J10" s="66">
         <f>SUM(B10:H10)</f>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="K10" s="59">
+        <v>0.84236111111111112</v>
+      </c>
+      <c r="K10" s="66">
         <f>J10/7</f>
-        <v>0.10476190476190476</v>
+        <v>0.12033730158730159</v>
       </c>
       <c r="M10" s="60">
-        <f>SUM(B10:H10)/5</f>
-        <v>0.14666666666666667</v>
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="N10" s="66">
+        <f>K10-M10</f>
+        <v>1.9841269841269771E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M11" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M12" s="60">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="N12" s="66">
+        <f>J10-M12</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72671430-38D8-49EB-9E30-D5D56F27847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41BD12B-7797-4FC4-8F77-2E3573C8DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="59160" yWindow="390" windowWidth="22680" windowHeight="15135" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="200">
   <si>
     <t>매개변수</t>
   </si>
@@ -637,20 +637,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIFF S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIFF A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>PRE SUM</t>
+  </si>
+  <si>
+    <t>PRE AVG</t>
   </si>
 </sst>
 </file>
@@ -658,33 +648,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +750,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,16 +992,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1010,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,10 +1044,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1084,8 +1092,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,11 +1112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1118,7 +1132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1420,27 +1434,27 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1451,7 +1465,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1462,7 +1476,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1473,7 +1487,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1484,7 +1498,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1495,21 +1509,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1520,7 +1534,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1531,7 +1545,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1542,14 +1556,14 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -1560,7 +1574,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
@@ -1571,7 +1585,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1582,7 +1596,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1593,7 +1607,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1604,7 +1618,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1615,7 +1629,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1626,7 +1640,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1637,7 +1651,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
@@ -1648,7 +1662,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -1659,7 +1673,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1670,51 +1684,51 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="E32" s="2"/>
     </row>
   </sheetData>
@@ -1732,15 +1746,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1748,14 +1762,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -1771,7 +1785,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>58</v>
@@ -1787,7 +1801,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>59</v>
@@ -1803,14 +1817,14 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1833,16 +1847,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1850,7 +1864,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
@@ -1869,7 +1883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -1888,7 +1902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1907,7 +1921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -1926,7 +1940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1942,7 +1956,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1958,7 +1972,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1974,7 +1988,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1990,7 +2004,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -2006,7 +2020,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -2022,7 +2036,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -2036,7 +2050,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2044,7 +2058,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2055,7 +2069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="57">
         <v>1</v>
@@ -2071,7 +2085,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2087,7 +2101,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="8"/>
       <c r="B19" s="57">
         <v>3</v>
@@ -2103,7 +2117,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="57">
         <v>4</v>
@@ -2119,7 +2133,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="8"/>
       <c r="B21" s="57">
         <v>5</v>
@@ -2135,7 +2149,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="57">
         <v>6</v>
@@ -2154,7 +2168,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2166,7 +2180,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="8"/>
       <c r="B24" s="57" t="s">
         <v>163</v>
@@ -2182,7 +2196,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="8"/>
       <c r="B25" s="57" t="s">
         <v>163</v>
@@ -2198,7 +2212,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>163</v>
@@ -2210,7 +2224,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2218,7 +2232,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
       <c r="D28" s="52"/>
@@ -2240,15 +2254,15 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.125" customWidth="1"/>
-    <col min="5" max="37" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="37" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2287,103 +2301,103 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="64"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="68"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61" t="s">
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61" t="s">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61" t="s">
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61" t="s">
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2486,7 +2500,7 @@
       </c>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37">
       <c r="A5" s="2"/>
       <c r="B5" s="25" t="s">
         <v>68</v>
@@ -2529,7 +2543,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="2"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37">
       <c r="A6" s="2"/>
       <c r="B6" s="25" t="s">
         <v>70</v>
@@ -2572,7 +2586,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
@@ -2615,7 +2629,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37">
       <c r="A8" s="2"/>
       <c r="B8" s="25" t="s">
         <v>73</v>
@@ -2658,7 +2672,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>77</v>
@@ -2701,7 +2715,7 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37">
       <c r="A10" s="2"/>
       <c r="B10" s="30" t="s">
         <v>74</v>
@@ -2742,7 +2756,7 @@
       <c r="AJ10" s="33"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
         <v>75</v>
@@ -2783,7 +2797,7 @@
       <c r="AJ11" s="38"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37">
       <c r="A12" s="2"/>
       <c r="B12" s="39" t="s">
         <v>76</v>
@@ -2824,7 +2838,7 @@
       <c r="AJ12" s="43"/>
       <c r="AK12" s="2"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>79</v>
@@ -2867,7 +2881,7 @@
       <c r="AJ13" s="33"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="38" t="s">
@@ -2908,7 +2922,7 @@
       <c r="AJ14" s="38"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38" t="s">
@@ -2949,7 +2963,7 @@
       <c r="AJ15" s="38"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37">
       <c r="A16" s="2"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38" t="s">
@@ -2990,7 +3004,7 @@
       <c r="AJ16" s="38"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38" t="s">
@@ -3031,7 +3045,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="2"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37">
       <c r="A18" s="2"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43" t="s">
@@ -3072,7 +3086,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37">
       <c r="A19" s="2"/>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -3115,7 +3129,7 @@
       <c r="AJ19" s="33"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="38" t="s">
@@ -3156,7 +3170,7 @@
       <c r="AJ20" s="38"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38" t="s">
@@ -3197,7 +3211,7 @@
       <c r="AJ21" s="38"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38" t="s">
@@ -3238,7 +3252,7 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38" t="s">
@@ -3279,7 +3293,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37">
       <c r="A24" s="2"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43" t="s">
@@ -3320,7 +3334,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37">
       <c r="A25" s="2"/>
       <c r="B25" s="30" t="s">
         <v>12</v>
@@ -3363,7 +3377,7 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37">
       <c r="A26" s="2"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38" t="s">
@@ -3404,7 +3418,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37">
       <c r="A27" s="2"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38" t="s">
@@ -3445,7 +3459,7 @@
       <c r="AJ27" s="38"/>
       <c r="AK27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38" t="s">
@@ -3486,7 +3500,7 @@
       <c r="AJ28" s="38"/>
       <c r="AK28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37">
       <c r="A29" s="2"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38" t="s">
@@ -3527,7 +3541,7 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37">
       <c r="A30" s="2"/>
       <c r="B30" s="39"/>
       <c r="C30" s="43" t="s">
@@ -3568,7 +3582,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37">
       <c r="A31" s="2"/>
       <c r="B31" s="30" t="s">
         <v>13</v>
@@ -3611,7 +3625,7 @@
       <c r="AJ31" s="33"/>
       <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37">
       <c r="A32" s="2"/>
       <c r="B32" s="34"/>
       <c r="C32" s="38" t="s">
@@ -3652,7 +3666,7 @@
       <c r="AJ32" s="38"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37">
       <c r="A33" s="2"/>
       <c r="B33" s="34"/>
       <c r="C33" s="38" t="s">
@@ -3693,7 +3707,7 @@
       <c r="AJ33" s="38"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37">
       <c r="A34" s="2"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38" t="s">
@@ -3734,7 +3748,7 @@
       <c r="AJ34" s="38"/>
       <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37">
       <c r="A35" s="2"/>
       <c r="B35" s="34"/>
       <c r="C35" s="38" t="s">
@@ -3775,7 +3789,7 @@
       <c r="AJ35" s="38"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37">
       <c r="A36" s="2"/>
       <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
@@ -3816,7 +3830,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3855,7 +3869,7 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3894,7 +3908,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3958,22 +3972,22 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3990,7 +4004,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -4001,7 +4015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="E5" t="s">
         <v>98</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4037,17 +4051,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="H9" t="s">
         <v>111</v>
       </c>
@@ -4064,7 +4078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="L10" t="s">
         <v>117</v>
       </c>
@@ -4072,7 +4086,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4080,12 +4094,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="K12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="K13" t="s">
         <v>121</v>
       </c>
@@ -4093,7 +4107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="I14" t="s">
         <v>113</v>
       </c>
@@ -4101,7 +4115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="I15" t="s">
         <v>114</v>
       </c>
@@ -4112,7 +4126,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4120,22 +4134,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="K18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -4152,7 +4166,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -4163,27 +4177,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
@@ -4191,7 +4205,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="48" t="s">
         <v>155</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="48" t="s">
         <v>156</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="48" t="s">
         <v>157</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="48" t="s">
         <v>158</v>
       </c>
@@ -4229,7 +4243,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="G32" t="s">
         <v>145</v>
       </c>
@@ -4243,30 +4257,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAF570-37C7-4E77-A024-2CFB4A955725}">
-  <dimension ref="B3:Q12"/>
+  <dimension ref="B3:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="59"/>
+    <col min="1" max="1" width="9.140625" style="59"/>
     <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="59"/>
+    <col min="3" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17">
       <c r="B3" s="59" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="59" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="59" t="s">
         <v>188</v>
       </c>
@@ -4331,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17">
       <c r="B7" s="59" t="s">
         <v>187</v>
       </c>
@@ -4340,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17">
       <c r="B9" s="59" t="s">
         <v>189</v>
       </c>
@@ -4362,31 +4406,37 @@
       <c r="H9" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="N9" s="66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N9" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="60">
-        <v>0.14861111111111111</v>
+        <v>7.8472222222222221E-2</v>
       </c>
       <c r="C10" s="60">
         <v>0.14097222222222222</v>
       </c>
       <c r="D10" s="60">
-        <v>0.15486111111111112</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="E10" s="60">
-        <v>8.1944444444444445E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="F10" s="60">
         <v>0.20694444444444446</v>
@@ -4397,38 +4447,59 @@
       <c r="H10" s="60">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="62">
         <f>SUM(B10:H10)</f>
-        <v>0.84236111111111112</v>
-      </c>
-      <c r="K10" s="66">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="K10" s="62">
         <f>J10/7</f>
-        <v>0.12033730158730159</v>
-      </c>
-      <c r="M10" s="60">
-        <v>0.12013888888888889</v>
-      </c>
-      <c r="N10" s="66">
-        <f>K10-M10</f>
-        <v>1.9841269841269771E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M11" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M12" s="60">
-        <v>0.84236111111111101</v>
-      </c>
-      <c r="N12" s="66">
-        <f>J10-M12</f>
-        <v>0</v>
-      </c>
+        <v>0.10456349206349205</v>
+      </c>
+      <c r="M10" s="70">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="N10" s="70">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="P10" s="63">
+        <f>ABS(J10-M10)</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="Q10" s="63">
+        <f>ABS(K10-N10)</f>
+        <v>2.9761904761906044E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="P11" s="64" t="str">
+        <f>IF(J10&gt;=M10,"BAD","GOOD")</f>
+        <v>BAD</v>
+      </c>
+      <c r="Q11" s="64" t="str">
+        <f>IF(K10&gt;=N10,"BAD","GOOD")</f>
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41BD12B-7797-4FC4-8F77-2E3573C8DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE93F5-FD30-4DD3-8B42-2D401B5394D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59160" yWindow="390" windowWidth="22680" windowHeight="15135" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="EngTrainig" sheetId="4" r:id="rId4"/>
     <sheet name="Drive" sheetId="5" r:id="rId5"/>
-    <sheet name="YouTubeTime" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
   <si>
     <t>매개변수</t>
   </si>
@@ -595,61 +594,14 @@
   </si>
   <si>
     <t>In his father's footsteps</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Cal Time</t>
-  </si>
-  <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>TUE</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>AVG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRE SUM</t>
-  </si>
-  <si>
-    <t>PRE AVG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -674,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,24 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,14 +1026,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,8 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,40 +2230,40 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="68"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="62"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37">
@@ -2347,54 +2271,54 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65" t="s">
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65" t="s">
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37">
@@ -3968,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB310DAA-1BAF-441B-9BE8-A960ED9D9C3F}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4253,257 +4177,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAF570-37C7-4E77-A024-2CFB4A955725}">
-  <dimension ref="B3:Q14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
-    <col min="2" max="2" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="59"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="59">
-        <f t="shared" ref="C5:Q5" si="0">C4-C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="59">
-        <f>SUM(C5:Q5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="N9" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="60">
-        <v>7.8472222222222221E-2</v>
-      </c>
-      <c r="C10" s="60">
-        <v>0.14097222222222222</v>
-      </c>
-      <c r="D10" s="60">
-        <v>0.11666666666666665</v>
-      </c>
-      <c r="E10" s="60">
-        <v>7.9861111111111105E-2</v>
-      </c>
-      <c r="F10" s="60">
-        <v>0.20694444444444446</v>
-      </c>
-      <c r="G10" s="60">
-        <v>7.1527777777777787E-2</v>
-      </c>
-      <c r="H10" s="60">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="J10" s="62">
-        <f>SUM(B10:H10)</f>
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K10" s="62">
-        <f>J10/7</f>
-        <v>0.10456349206349205</v>
-      </c>
-      <c r="M10" s="70">
-        <v>0.72986111111111107</v>
-      </c>
-      <c r="N10" s="70">
-        <v>0.10486111111111111</v>
-      </c>
-      <c r="P10" s="63">
-        <f>ABS(J10-M10)</f>
-        <v>2.0833333333333259E-3</v>
-      </c>
-      <c r="Q10" s="63">
-        <f>ABS(K10-N10)</f>
-        <v>2.9761904761906044E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="P11" s="64" t="str">
-        <f>IF(J10&gt;=M10,"BAD","GOOD")</f>
-        <v>BAD</v>
-      </c>
-      <c r="Q11" s="64" t="str">
-        <f>IF(K10&gt;=N10,"BAD","GOOD")</f>
-        <v>GOOD</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE93F5-FD30-4DD3-8B42-2D401B5394D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF260E2D-1570-4955-BF04-35E275A54BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8DD9ED6A-225A-44C3-81A1-DD5DD6C6484B}"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="EngTrainig" sheetId="4" r:id="rId4"/>
     <sheet name="Drive" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
   <si>
     <t>매개변수</t>
   </si>
@@ -594,6 +595,222 @@
   </si>
   <si>
     <t>In his father's footsteps</t>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 값과 일치하는 요소들의 개수를 센다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_if()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 조건에 맞는 요소들의 개수를 센다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 값과 일치하는 첫번째 요소를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_n()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 값과 일치하는 n개의 요소를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_if()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 조건에 일치하는 첫번째 요소를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_end()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 조건에 일치하는 마지막 요소를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary_search()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬된 컨테이너에 대하여 이진 탐색을 수행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개의 요소가 같은지 비교한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mismatch()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개의 컨테이너를 비교하여서 일치하지 않는 첫번째 요소를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lexicographical_compare()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개의 순차 컨테이너를 비교하면서 사전적으로 어떤 컨테이너가 작은지를 반환한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 범위의 모든 요소를 지정된 값으로 채운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 함수의 반환값을 할당한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for_each()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 범위의 모든 요소에 대하여 연산을 수행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 범위의 모든 요소에 대하여 함수를 적용한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 구간을 다른 구간으로 복사한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 구간에서 지정된 값을 가지는 요소들을 삭제한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간에서 중복된 요소들을 삭제한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 구간에서 요소가 지정된 값과 일치하면 대치값으로 바꾼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 정렬 기준에 따라서 구간의 요소들을 정렬한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 구간의 요소들을 조건에 따라서 두 개의 집합으로 나눈다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,26 +818,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -706,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -922,20 +1154,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -952,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,10 +1313,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1038,12 +1373,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1056,7 +1415,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1358,27 +1717,27 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1389,7 +1748,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -1400,7 +1759,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1411,7 +1770,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1422,7 +1781,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1433,21 +1792,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1458,7 +1817,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1469,7 +1828,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1480,14 +1839,14 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -1498,7 +1857,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
@@ -1509,7 +1868,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -1520,7 +1879,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1531,7 +1890,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1542,7 +1901,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1553,7 +1912,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1564,7 +1923,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1575,7 +1934,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>50</v>
@@ -1586,7 +1945,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -1597,7 +1956,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1608,51 +1967,51 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E32" s="2"/>
     </row>
   </sheetData>
@@ -1670,15 +2029,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="37.8984375" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1686,14 +2045,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -1709,7 +2068,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>58</v>
@@ -1725,7 +2084,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>59</v>
@@ -1741,14 +2100,14 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1771,16 +2130,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -1788,7 +2147,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>1</v>
@@ -1807,7 +2166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -1826,7 +2185,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1845,7 +2204,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -1864,7 +2223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1880,7 +2239,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -1896,7 +2255,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>7</v>
@@ -1912,7 +2271,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1928,7 +2287,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -1944,7 +2303,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -1960,7 +2319,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -1974,7 +2333,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -1982,7 +2341,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -1993,7 +2352,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="57">
         <v>1</v>
@@ -2009,7 +2368,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
         <v>2</v>
@@ -2025,7 +2384,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="57">
         <v>3</v>
@@ -2041,7 +2400,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="57">
         <v>4</v>
@@ -2057,7 +2416,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="57">
         <v>5</v>
@@ -2073,7 +2432,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="57">
         <v>6</v>
@@ -2092,7 +2451,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2104,7 +2463,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="57" t="s">
         <v>163</v>
@@ -2120,7 +2479,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="57" t="s">
         <v>163</v>
@@ -2136,7 +2495,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>163</v>
@@ -2148,7 +2507,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2156,7 +2515,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
       <c r="D28" s="52"/>
@@ -2178,15 +2537,15 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="37" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.09765625" customWidth="1"/>
+    <col min="5" max="37" width="4.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2225,7 +2584,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2266,7 +2625,7 @@
       <c r="AJ2" s="62"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2321,7 +2680,7 @@
       <c r="AJ3" s="59"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2424,7 +2783,7 @@
       </c>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="25" t="s">
         <v>68</v>
@@ -2467,7 +2826,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="2"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="25" t="s">
         <v>70</v>
@@ -2510,7 +2869,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
@@ -2553,7 +2912,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="25" t="s">
         <v>73</v>
@@ -2596,7 +2955,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>77</v>
@@ -2639,7 +2998,7 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="30" t="s">
         <v>74</v>
@@ -2680,7 +3039,7 @@
       <c r="AJ10" s="33"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
         <v>75</v>
@@ -2721,7 +3080,7 @@
       <c r="AJ11" s="38"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="39" t="s">
         <v>76</v>
@@ -2762,7 +3121,7 @@
       <c r="AJ12" s="43"/>
       <c r="AK12" s="2"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>79</v>
@@ -2805,7 +3164,7 @@
       <c r="AJ13" s="33"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="38" t="s">
@@ -2846,7 +3205,7 @@
       <c r="AJ14" s="38"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38" t="s">
@@ -2887,7 +3246,7 @@
       <c r="AJ15" s="38"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38" t="s">
@@ -2928,7 +3287,7 @@
       <c r="AJ16" s="38"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="34"/>
       <c r="C17" s="38" t="s">
@@ -2969,7 +3328,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="2"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43" t="s">
@@ -3010,7 +3369,7 @@
       <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -3053,7 +3412,7 @@
       <c r="AJ19" s="33"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="34"/>
       <c r="C20" s="38" t="s">
@@ -3094,7 +3453,7 @@
       <c r="AJ20" s="38"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38" t="s">
@@ -3135,7 +3494,7 @@
       <c r="AJ21" s="38"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38" t="s">
@@ -3176,7 +3535,7 @@
       <c r="AJ22" s="38"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38" t="s">
@@ -3217,7 +3576,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43" t="s">
@@ -3258,7 +3617,7 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="30" t="s">
         <v>12</v>
@@ -3301,7 +3660,7 @@
       <c r="AJ25" s="33"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38" t="s">
@@ -3342,7 +3701,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38" t="s">
@@ -3383,7 +3742,7 @@
       <c r="AJ27" s="38"/>
       <c r="AK27" s="2"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38" t="s">
@@ -3424,7 +3783,7 @@
       <c r="AJ28" s="38"/>
       <c r="AK28" s="2"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38" t="s">
@@ -3465,7 +3824,7 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="2"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="39"/>
       <c r="C30" s="43" t="s">
@@ -3506,7 +3865,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="2"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="30" t="s">
         <v>13</v>
@@ -3549,7 +3908,7 @@
       <c r="AJ31" s="33"/>
       <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="34"/>
       <c r="C32" s="38" t="s">
@@ -3590,7 +3949,7 @@
       <c r="AJ32" s="38"/>
       <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="34"/>
       <c r="C33" s="38" t="s">
@@ -3631,7 +3990,7 @@
       <c r="AJ33" s="38"/>
       <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38" t="s">
@@ -3672,7 +4031,7 @@
       <c r="AJ34" s="38"/>
       <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="34"/>
       <c r="C35" s="38" t="s">
@@ -3713,7 +4072,7 @@
       <c r="AJ35" s="38"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="39"/>
       <c r="C36" s="43" t="s">
@@ -3754,7 +4113,7 @@
       <c r="AJ36" s="43"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3793,7 +4152,7 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3832,7 +4191,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3892,26 +4251,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB310DAA-1BAF-441B-9BE8-A960ED9D9C3F}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3928,7 +4287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3939,7 +4298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3950,7 +4309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>98</v>
       </c>
@@ -3958,7 +4317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3975,17 +4334,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>111</v>
       </c>
@@ -4002,7 +4361,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L10" t="s">
         <v>117</v>
       </c>
@@ -4010,7 +4369,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4018,12 +4377,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="K12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="K13" t="s">
         <v>121</v>
       </c>
@@ -4031,7 +4390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I14" t="s">
         <v>113</v>
       </c>
@@ -4039,7 +4398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I15" t="s">
         <v>114</v>
       </c>
@@ -4050,7 +4409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4058,22 +4417,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -4090,7 +4449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -4101,27 +4460,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="48" t="s">
         <v>154</v>
       </c>
@@ -4129,7 +4488,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="48" t="s">
         <v>155</v>
       </c>
@@ -4140,7 +4499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="48" t="s">
         <v>156</v>
       </c>
@@ -4148,7 +4507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="48" t="s">
         <v>157</v>
       </c>
@@ -4159,7 +4518,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="48" t="s">
         <v>158</v>
       </c>
@@ -4167,7 +4526,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
         <v>145</v>
       </c>
@@ -4177,4 +4536,346 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD0A03-CF64-4E02-8248-D91D9C58E95C}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>